--- a/biology/Botanique/Cissampelos/Cissampelos.xlsx
+++ b/biology/Botanique/Cissampelos/Cissampelos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cissampelos est un genre de plantes de la famille des Menispermaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (14 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (14 août 2017) :
 Cissampelos pareira L.
-Selon Catalogue of Life                                   (14 août 2017)[3] :
+Selon Catalogue of Life                                   (14 août 2017) :
 Cissampelos andromorpha DC.
 Cissampelos capensis Thunb.
 Cissampelos fasciculata Benth.
@@ -565,12 +581,12 @@
 Cissampelos tropaeolifolia DC.
 Cissampelos truncatus Engl.
 Cissampelos verticillata Rhodes
-Selon GRIN            (14 août 2017)[4] :
+Selon GRIN            (14 août 2017) :
 Cissampelos pareira L.
 Cissampelos tropaeolifolia DC.
-Selon ITIS      (14 août 2017)[5] :
+Selon ITIS      (14 août 2017) :
 Cissampelos pareira L.
-Selon NCBI  (14 août 2017)[6] :
+Selon NCBI  (14 août 2017) :
 Cissampelos andromorpha
 Cissampelos capensis
 Cissampelos grandifolia
@@ -581,7 +597,7 @@
 Cissampelos pareira
 variété Cissampelos pareira var. hirsuta
 Cissampelos tropaeolifolia
-Selon The Plant List            (14 août 2017)[7] :
+Selon The Plant List            (14 août 2017) :
 Cissampelos andromorpha DC.
 Cissampelos capensis L.f.
 Cissampelos fasciculata Benth.
@@ -603,7 +619,7 @@
 Cissampelos torulosa E.Mey. ex Harv. &amp; Sond.
 Cissampelos tropaeolifolia DC.
 Cissampelos verticillata Rhodes
-Selon Tropicos                                           (14 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Cissampelos abutua Vell.
 Cissampelos acuminata DC.
 Cissampelos acuta Triana &amp; Planch.
